--- a/user_data_with_name.xlsx
+++ b/user_data_with_name.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,93 +498,93 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Daniel Baker</t>
+          <t>Mark Kemp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>93152481644218</t>
+          <t>74048656080501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>142265820</t>
+          <t>194858155</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Baker</t>
+          <t>Kemp</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>masseymadeline@example.org</t>
+          <t>danielskathy@example.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>+20157191545</t>
+          <t>+20188133404</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1142 Paul Prairie Whiteburgh, WI 10994</t>
+          <t>PSC 1378, Box 8259 APO AP 09626</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brenda Jones</t>
+          <t>Jack Mcconnell</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23737919693193</t>
+          <t>41798769894624</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>569884810</t>
+          <t>176842093</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Mcconnell</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>whitedawn@example.com</t>
+          <t>fisheradrian@example.net</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+20121599662</t>
+          <t>+20752351015</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>52187 Jennifer Rapids Suite 427 New Jasonville, VA 32038</t>
+          <t>6942 Cook Unions Andersonborough, AS 46938</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amy Golden</t>
+          <t>Brian Larsen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12439096091790</t>
+          <t>52191543384101</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>660110752</t>
+          <t>337621369</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Golden</t>
+          <t>Larsen</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>emily82@example.com</t>
+          <t>joel96@example.org</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>+20611168954</t>
+          <t>+20157209654</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -659,161 +659,161 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>6502 Vasquez Shoal Lake Jonathanberg, PA 25743</t>
+          <t>348 Hamilton Square Dominiqueton, MH 22163</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Douglas Kelly</t>
+          <t>Teresa Clarke</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>80684451509515</t>
+          <t>55870147577325</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>991598789</t>
+          <t>703040358</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Douglas</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kelly</t>
+          <t>Clarke</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>jefferywhitaker@example.net</t>
+          <t>patriciamccoy@example.com</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>+20161455988</t>
+          <t>+20470531683</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>425 Eric Light Lake Charlesshire, DE 68421</t>
+          <t>66473 Miller Mills Apt. 926 Matthewshire, MS 52181</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ellen Perez</t>
+          <t>Marcus Palmer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>87358643511376</t>
+          <t>61478537198694</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>566191032</t>
+          <t>360512169</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ellen</t>
+          <t>Marcus</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Perez</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>zwhite@example.com</t>
+          <t>tammy76@example.net</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>+20577767603</t>
+          <t>+20187231911</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12827 Max Forest Suite 890 Cookland, PA 34660</t>
+          <t>44164 Jack Oval Suite 223 Lewisborough, HI 55383</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aaron Wheeler</t>
+          <t>William Carter</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14686123615127</t>
+          <t>62847224375456</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>532747631</t>
+          <t>481009987</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>William</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Wheeler</t>
+          <t>Carter</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>jeremy97@example.org</t>
+          <t>omorales@example.net</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>+20648639495</t>
+          <t>+20340626058</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -827,217 +827,217 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>387 Derek Viaduct Suite 241 Martineztown, MI 36769</t>
+          <t>218 James Turnpike Baldwinton, VT 62419</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Daniel Hernandez</t>
+          <t>Michelle Hall</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>51221539956290</t>
+          <t>86432353409455</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>412361823</t>
+          <t>447599499</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Hall</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ysilva@example.org</t>
+          <t>tandersen@example.net</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>+20637498114</t>
+          <t>+20510945958</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>096 Jeremy View Suite 230 North Pamela, GA 22931</t>
+          <t>1456 Simpson Mountain East Cheryl, VI 62664</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Charles Duarte</t>
+          <t>Albert Lowe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29642031891113</t>
+          <t>18049532714128</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>189346211</t>
+          <t>226757807</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Albert</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Duarte</t>
+          <t>Lowe</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>milleredward@example.net</t>
+          <t>marshalljustin@example.org</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>+20487030186</t>
+          <t>+20729617333</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>157 John Drives Johnbury, WI 21800</t>
+          <t>27706 Kline Hills Nguyenburgh, AR 89558</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Timothy Vang</t>
+          <t>David Martinez</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>92710111718526</t>
+          <t>45988760235731</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>415408411</t>
+          <t>123171919</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>David</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vang</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>cthompson@example.com</t>
+          <t>ppetersen@example.net</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>+20535786703</t>
+          <t>+20951708772</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>81397 Young Plaza Stewartborough, OK 26997</t>
+          <t>4267 Smith Mall Apt. 810 New Thomastown, AS 85389</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mary Davis</t>
+          <t>Xavier Le</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>48780654282914</t>
+          <t>73466666082679</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>405126064</t>
+          <t>479117147</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Xavier</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Le</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>fpreston@example.net</t>
+          <t>ohartman@example.org</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>+20951034492</t>
+          <t>+20512297199</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -1047,48 +1047,48 @@
         <v>1</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>85822 Newman Lodge South Tammyfurt, IA 91055</t>
+          <t>9849 Daniel Union West Markside, VT 98523</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anthony Reed</t>
+          <t>Richard Jennings</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>67941067634515</t>
+          <t>76179167909841</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>897181471</t>
+          <t>956863072</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Jennings</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>jerrytran@example.org</t>
+          <t>marisa96@example.com</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>+20315315046</t>
+          <t>+20716753837</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -1107,105 +1107,105 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1073 John Parkways Port Nicholaston, MH 86637</t>
+          <t>061 Cindy Grove Suite 564 New Jamie, KY 06567</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Emma Adams</t>
+          <t>Michael Rivers</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>89137652811777</t>
+          <t>95332701845340</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>550435590</t>
+          <t>878080054</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Rivers</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>qharrington@example.com</t>
+          <t>brenda87@example.net</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>+20886260471</t>
+          <t>+20979038762</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2051 Meredith Wall Suite 051 South Catherinemouth, PA 70979</t>
+          <t>648 Kelley Crest Port Jeffview, MA 95272</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ashlee Smith</t>
+          <t>Kayla Gordon</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>97375469285033</t>
+          <t>51232242788434</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>635971821</t>
+          <t>702608405</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ashlee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Gordon</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>xstevens@example.org</t>
+          <t>shannonphillips@example.net</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>+20560299494</t>
+          <t>+20255947188</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -1219,100 +1219,100 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>85352 David Mill Suite 926 New Ricardo, MT 91479</t>
+          <t>USS Allen FPO AE 47833</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Megan Johnson</t>
+          <t>Angela Fisher</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>44558315738219</t>
+          <t>82236483964960</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>765490017</t>
+          <t>216099706</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Megan</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Fisher</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>cody72@example.com</t>
+          <t>mercadojessica@example.org</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>+20278835996</t>
+          <t>+20389068994</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>30726 William Squares Lake Charlestown, MH 18247</t>
+          <t>545 Kevin Causeway New Alan, HI 94289</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Maria Donaldson</t>
+          <t>Timothy Gonzales</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14217276349302</t>
+          <t>67956211770433</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>374188538</t>
+          <t>766677174</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Donaldson</t>
+          <t>Gonzales</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>wilsondouglas@example.net</t>
+          <t>doylerachel@example.com</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>+20804051842</t>
+          <t>+20264913267</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1331,49 +1331,49 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>157 Martin Cliffs Apt. 199 East Feliciafort, DE 92479</t>
+          <t>USS Santana FPO AA 87253</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jennifer Sawyer</t>
+          <t>Jeremy Russo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13629760040777</t>
+          <t>99543103864527</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>605186168</t>
+          <t>256957242</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Jeremy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sawyer</t>
+          <t>Russo</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>hjohnson@example.com</t>
+          <t>cindy63@example.net</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>+20303510328</t>
+          <t>+20358583379</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -1387,156 +1387,156 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4862 Jose Tunnel Suite 369 Jessicaton, HI 35765</t>
+          <t>5217 Gray Manor Apt. 700 Smithstad, IA 07349</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Richard Wall</t>
+          <t>Curtis Bennett</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>95939088577268</t>
+          <t>98510134449248</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>147746025</t>
+          <t>149590874</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Curtis</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Wall</t>
+          <t>Bennett</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>jeromemiles@example.net</t>
+          <t>ericpotts@example.org</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>+20754566515</t>
+          <t>+20462496351</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I18" t="b">
         <v>1</v>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3708 Brown Extension Elliotthaven, AK 91542</t>
+          <t>Unit 7922 Box 9832 DPO AP 42344</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jonathan Brown</t>
+          <t>Sean Shaw</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>68991801701604</t>
+          <t>97939028758454</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>610769917</t>
+          <t>358114435</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Sean</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Shaw</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>jill77@example.org</t>
+          <t>qhogan@example.net</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>+20998328587</t>
+          <t>+20453240982</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>75789 Wade Summit Apt. 837 Danielsbury, WV 14751</t>
+          <t>PSC 7492, Box 8648 APO AE 86749</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Marvin Woodard</t>
+          <t>Bryan Thomas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>58412807246427</t>
+          <t>57252426294276</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>247508770</t>
+          <t>163690342</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Marvin</t>
+          <t>Bryan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Woodard</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>jessicawillis@example.com</t>
+          <t>sramirez@example.net</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>+20830202271</t>
+          <t>+20834158227</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1548,56 +1548,56 @@
         <v>1</v>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>567 Mason Loaf Apt. 028 West Maria, DC 87106</t>
+          <t>1138 Armstrong Turnpike Apt. 806 West Jasmine, UT 39719</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rebecca Taylor</t>
+          <t>Jason Gonzalez</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16715675257593</t>
+          <t>71911290784387</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>657678995</t>
+          <t>259393446</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Gonzalez</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>nashley@example.net</t>
+          <t>coxgina@example.org</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>+20936811173</t>
+          <t>+20939194521</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -1611,156 +1611,156 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>9830 Gillespie Valley Suite 511 East Kathleenside, ID 72048</t>
+          <t>64332 Clark Lodge South Juliemouth, ID 25699</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Anthony Wilson</t>
+          <t>Isabel Cox</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>86211638725699</t>
+          <t>42614548208911</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>568379315</t>
+          <t>393510423</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Isabel</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Cox</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>xhorn@example.org</t>
+          <t>bestanthony@example.com</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>+20917183132</t>
+          <t>+20225245462</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>3536 Harrison Pines Suite 192 South Patricia, CO 80516</t>
+          <t>65515 Jones Cape Suite 848 Thompsonmouth, RI 21132</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Samuel Perez</t>
+          <t>Felicia King</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>45515448235079</t>
+          <t>39987083688291</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>727119427</t>
+          <t>679721799</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Felicia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Perez</t>
+          <t>King</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>montesjason@example.com</t>
+          <t>ipadilla@example.com</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>+20937383732</t>
+          <t>+20739253828</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0808 Pham Viaduct Douglasborough, OR 46016</t>
+          <t>3999 Thomas Villages West Tanyafurt, VI 28387</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Debra Clark</t>
+          <t>Allison Petersen</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>72777472553453</t>
+          <t>99775543110137</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>622589786</t>
+          <t>440583909</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Debra</t>
+          <t>Allison</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Petersen</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ymiller@example.com</t>
+          <t>stephaniestein@example.com</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>+20400200259</t>
+          <t>+20117160375</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1772,60 +1772,60 @@
         <v>0</v>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1395 Hernandez Drives Ericksonside, MS 48998</t>
+          <t>USCGC Nelson FPO AE 82117</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Barbara Fox</t>
+          <t>Douglas Gregory</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>76154171090957</t>
+          <t>38977216617539</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>936540255</t>
+          <t>936725577</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Douglas</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Gregory</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>heatherjones@example.net</t>
+          <t>teresa75@example.com</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>+20892285190</t>
+          <t>+20953726931</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -1835,268 +1835,268 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2100 Joel Station Suite 971 Jessehaven, OR 11952</t>
+          <t>1830 Tran Junctions Suite 168 Lake Bryan, KY 94387</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aaron Wood</t>
+          <t>Derrick Dean</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>53245960353647</t>
+          <t>80051656000502</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>535266638</t>
+          <t>951403160</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Derrick</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Dean</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>jacobsmary@example.net</t>
+          <t>oroberts@example.org</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>+20286345043</t>
+          <t>+20649069620</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>25521 Perez Prairie Port John, VA 61996</t>
+          <t>358 Elliott Views Apt. 520 Port James, DC 11329</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>John Mccarthy</t>
+          <t>Erik Weeks</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>83510544258200</t>
+          <t>41025449201203</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>124949728</t>
+          <t>601676229</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mccarthy</t>
+          <t>Weeks</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>forbessteven@example.net</t>
+          <t>wcunningham@example.com</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>+20219700732</t>
+          <t>+20845820374</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>7199 Edward Vista Apt. 839 Malonebury, AZ 60240</t>
+          <t>417 Matthews Course Suite 311 Erinton, NC 30523</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>William Wright</t>
+          <t>Wendy Soto</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>88086614473900</t>
+          <t>90704189149384</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>791727241</t>
+          <t>664926955</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Wright</t>
+          <t>Soto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>hwright@example.com</t>
+          <t>wdavis@example.org</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>+20314266200</t>
+          <t>+20997321625</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>77693 Poole Skyway Apt. 984 New Dan, DC 65381</t>
+          <t>380 Knapp Manor Apt. 876 Gonzalezport, LA 58826</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Michelle Jones</t>
+          <t>Carla Ramos</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>88083401444166</t>
+          <t>39868023803517</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>382926668</t>
+          <t>396684632</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Carla</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Ramos</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>heatherlopez@example.org</t>
+          <t>torresscott@example.org</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>+20893274908</t>
+          <t>+20166101819</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>21841 Ashley Rest Suite 633 Knightburgh, LA 28577</t>
+          <t>4194 Garrett Forks Bowenberg, AL 46878</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jennifer Brown</t>
+          <t>Chelsea Cole</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>71665094070276</t>
+          <t>42476810103160</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>893077574</t>
+          <t>972634939</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Cole</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>baileyricardo@example.com</t>
+          <t>melvin61@example.com</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>+20487833749</t>
+          <t>+20424260349</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2105,390 +2105,390 @@
         </is>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>18778 Chen Path Suite 201 Karenfort, PR 43915</t>
+          <t>351 Stephanie Mountains Suite 836 Mariahbury, TX 77873</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Linda Hernandez</t>
+          <t>Mark Stevens</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>30734990370912</t>
+          <t>84362448703090</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>126211400</t>
+          <t>831108459</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Stevens</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>mark42@example.org</t>
+          <t>ashleyjohnson@example.com</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>+20475451411</t>
+          <t>+20850959223</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>5012 Melanie Row Apt. 911 Kellybury, GU 37556</t>
+          <t>8962 Powell Forges Gouldchester, UT 28761</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Julia Griffith</t>
+          <t>Samantha Zamora</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>53758972372860</t>
+          <t>19842083378502</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>820443744</t>
+          <t>650434557</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Griffith</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>devinwood@example.net</t>
+          <t>ejohnson@example.com</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>+20316218446</t>
+          <t>+20705651493</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I32" t="b">
         <v>1</v>
       </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>4687 Christopher Expressway Donnamouth, NM 59526</t>
+          <t>36800 Ward Grove Apt. 897 Perezfort, CO 31705</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lisa Riddle</t>
+          <t>Keith Martinez</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>83023673759094</t>
+          <t>50471165100497</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>622020141</t>
+          <t>459451084</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Keith</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Riddle</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>roberto36@example.com</t>
+          <t>crystal15@example.net</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>+20315653624</t>
+          <t>+20770074310</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
       <c r="J33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>48319 Lori Centers West Margaret, MN 92011</t>
+          <t>26507 Michael Trail Suite 602 Robinchester, MH 48586</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Scott Horton</t>
+          <t>David Sullivan</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>75056994471135</t>
+          <t>16570280539638</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>154166851</t>
+          <t>451042701</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>David</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Horton</t>
+          <t>Sullivan</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>brooksgregory@example.com</t>
+          <t>huynhamber@example.com</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>+20268106906</t>
+          <t>+20992736594</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>USNV Summers FPO AA 33787</t>
+          <t>1005 Gomez Center South Timothy, DC 74350</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brittany Cochran</t>
+          <t>Peggy Jimenez</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>84212706080673</t>
+          <t>83043421473146</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>758128431</t>
+          <t>904076810</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Peggy</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cochran</t>
+          <t>Jimenez</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>jessica07@example.org</t>
+          <t>lstephens@example.org</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>+20383073274</t>
+          <t>+20635453892</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I35" t="b">
         <v>0</v>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>4065 Robin Field Suite 368 Lake Mary, SC 28194</t>
+          <t>03796 Brittany Skyway Port Samantha, ME 38033</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Victor Potter</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>90134769186091</t>
+          <t>90670252174630</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>766934544</t>
+          <t>835076788</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Potter</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>yolandajohnson@example.net</t>
+          <t>cohencatherine@example.org</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>+20111989036</t>
+          <t>+20561405406</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>209 Stokes Bridge Boyleville, SC 34345</t>
+          <t>2571 Kennedy Forge Shortberg, FM 87742</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Paula Mccann</t>
+          <t>Justin Richards</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>29613531326894</t>
+          <t>36651330040077</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>374834903</t>
+          <t>788624343</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Paula</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mccann</t>
+          <t>Richards</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>kevin85@example.org</t>
+          <t>dmartin@example.org</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>+20539051857</t>
+          <t>+20443892965</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2497,59 +2497,59 @@
         </is>
       </c>
       <c r="I37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>3631 Hayden Way Apt. 975 Leahport, NJ 36965</t>
+          <t>120 Timothy Lights Davisfort, FM 17012</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chad Robinson</t>
+          <t>William Rogers</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>64241629803263</t>
+          <t>33374325445067</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>507410896</t>
+          <t>137382900</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>William</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Robinson</t>
+          <t>Rogers</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>kyleharmon@example.com</t>
+          <t>alicia88@example.org</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>+20311225011</t>
+          <t>+20428222522</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -2563,105 +2563,105 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Unit 4244 Box 6409 DPO AE 30041</t>
+          <t>539 Estrada Union Suite 415 Fieldsborough, ID 22852</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Richard Mora</t>
+          <t>Patrick Mcdowell</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>47054780637091</t>
+          <t>21940099374554</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>544292136</t>
+          <t>691404965</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mora</t>
+          <t>Mcdowell</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>jocelynblack@example.net</t>
+          <t>huangjennifer@example.net</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>+20754799025</t>
+          <t>+20577722241</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I39" t="b">
         <v>0</v>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>52060 Natalie Walk West Heathershire, WV 99090</t>
+          <t>8134 Miller Circles Suite 507 North Jeremy, FL 30814</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brittany Jacobs</t>
+          <t>Tiffany Thomas</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>46418474517596</t>
+          <t>95578034139537</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>844491922</t>
+          <t>362369946</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Tiffany</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>billy38@example.net</t>
+          <t>bautistamichael@example.org</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>+20860762616</t>
+          <t>+20332353259</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -2675,212 +2675,212 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>151 Daniel Flats Apt. 784 North Catherine, AL 12444</t>
+          <t>89716 Debra Circles East Jorge, GU 97463</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Wayne Walker</t>
+          <t>Brian Williams</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>58052957560263</t>
+          <t>23267325401611</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>655989007</t>
+          <t>832475043</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wayne</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>wsantiago@example.com</t>
+          <t>robertsonjustin@example.org</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>+20697395502</t>
+          <t>+20818947286</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I41" t="b">
         <v>1</v>
       </c>
       <c r="J41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>661 James Prairie Scottborough, HI 93941</t>
+          <t>61229 Lisa Rapid Suite 274 Lake Kimberlyfurt, PW 33144</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bobby Owens</t>
+          <t>Anne Parks</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10013034534791</t>
+          <t>96876387261567</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>751896653</t>
+          <t>462695078</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bobby</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Owens</t>
+          <t>Parks</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>natalie56@example.net</t>
+          <t>duartedean@example.net</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>+20510742897</t>
+          <t>+20334863737</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>53780 Shawn Drive New Jennifershire, PA 20913</t>
+          <t>548 Jacob Forge West Joshuaview, DC 03728</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Carolyn Gordon</t>
+          <t>Steven Rocha</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>14594737688792</t>
+          <t>10348927825004</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>928503657</t>
+          <t>123271459</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Steven</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Gordon</t>
+          <t>Rocha</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>gregorybrown@example.net</t>
+          <t>contrerasjennifer@example.net</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>+20839923107</t>
+          <t>+20815508704</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>550 Tina Orchard Adamsland, SC 48317</t>
+          <t>536 Silva Extensions Apt. 230 Marshallside, DE 05246</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Justin Holmes</t>
+          <t>Christopher Osborne</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>43749805359451</t>
+          <t>56224814417674</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>183874919</t>
+          <t>288320567</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Holmes</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>williamboyd@example.com</t>
+          <t>ntorres@example.com</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>+20396815053</t>
+          <t>+20553478973</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
@@ -2899,44 +2899,44 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>423 Kyle Cape Jamesstad, MD 56172</t>
+          <t>994 Mack Port Suite 513 New Sandra, RI 22220</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Erica Sanchez</t>
+          <t>Luis Castro</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>52836877062646</t>
+          <t>58603820467700</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>654093993</t>
+          <t>430226796</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Erica</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sanchez</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>brianhenson@example.com</t>
+          <t>gregoryharper@example.com</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>+20185192378</t>
+          <t>+20761199446</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2945,227 +2945,227 @@
         </is>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>43864 George Grove Port Connie, AS 90181</t>
+          <t>149 Haney Heights Suite 311 Port Matthew, PW 44405</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Katherine Smith</t>
+          <t>Kayla Harvey</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>47598943039581</t>
+          <t>64672138898240</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>817773797</t>
+          <t>772878533</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Harvey</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>elizabeth78@example.org</t>
+          <t>stephaniepatterson@example.com</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>+20739393164</t>
+          <t>+20481502573</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
       <c r="J46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>18602 Henry Fall Apt. 733 Tylerside, WV 94075</t>
+          <t>4317 Paul Falls East Rachelborough, ND 90367</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Amanda Barnes</t>
+          <t>Stephanie Ortiz</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16524256296114</t>
+          <t>52668893436746</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>386607809</t>
+          <t>916049138</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Ortiz</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>xholden@example.org</t>
+          <t>cpugh@example.net</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>+20939591068</t>
+          <t>+20726437308</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
       </c>
       <c r="K47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>9029 Miller Motorway Bowenfort, GU 22284</t>
+          <t>USNV Villegas FPO AA 36028</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Justin Olson</t>
+          <t>Christina Brown</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>40518162121788</t>
+          <t>22332378004339</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>322867494</t>
+          <t>366680612</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Christina</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Olson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>reedgabriella@example.net</t>
+          <t>charles65@example.com</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>+20266891793</t>
+          <t>+20325286193</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
       </c>
       <c r="K48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>938 Courtney Knoll Apt. 008 Kristychester, NV 60991</t>
+          <t>22403 Candice Unions Apt. 937 Kinghaven, LA 16030</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sarah Sawyer</t>
+          <t>Kevin Bradley</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>99393222100613</t>
+          <t>86197652731733</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>789278810</t>
+          <t>201662767</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sawyer</t>
+          <t>Bradley</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>vhenson@example.org</t>
+          <t>carpentermatthew@example.com</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>+20981140935</t>
+          <t>+20449526670</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -3179,44 +3179,44 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>83522 Tammie Hills Santosmouth, AR 23262</t>
+          <t>5600 Dylan Keys North Robertside, IL 70214</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Steven Alvarado</t>
+          <t>Joe Keller</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>28101596079832</t>
+          <t>35192158986120</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>437912850</t>
+          <t>801606839</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Joe</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Keller</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>pamelanelson@example.com</t>
+          <t>andersonchristopher@example.com</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>+20185245489</t>
+          <t>+20753829548</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3225,59 +3225,59 @@
         </is>
       </c>
       <c r="I50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>67117 William Forges East Cheryl, RI 62455</t>
+          <t>38883 Perez Landing Apt. 989 West Lacey, NY 75132</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Brianna Carroll</t>
+          <t>Thomas Nunez</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>82188251657137</t>
+          <t>88048430148667</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>738937494</t>
+          <t>982685778</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Carroll</t>
+          <t>Nunez</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>zwolfe@example.net</t>
+          <t>lindsay86@example.com</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>+20859646146</t>
+          <t>+20414649871</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -3291,109 +3291,109 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>477 Ruiz Prairie West Sylviaton, NC 84007</t>
+          <t>Unit 2802 Box 3608 DPO AA 23997</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>John Barnes</t>
+          <t>Kurt Brewer</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>27285202906508</t>
+          <t>93137742839883</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>410948662</t>
+          <t>405778403</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Kurt</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Brewer</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>kimberly43@example.net</t>
+          <t>jasondavis@example.org</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>+20738016368</t>
+          <t>+20891303606</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2325 Michael Key Apt. 362 South Charleston, PA 28168</t>
+          <t>7497 Day Glen Suite 990 West Jeremyberg, GU 34933</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Crystal Lopez</t>
+          <t>Katherine Fox</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>41727536159577</t>
+          <t>14141222313661</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>689262229</t>
+          <t>421551864</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>jonknox@example.com</t>
+          <t>fisherrachel@example.com</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>+20235600114</t>
+          <t>+20250823582</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
@@ -3403,44 +3403,44 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>4815 Nicholas Ford West Brett, KY 15008</t>
+          <t>418 Michelle Road Port Luiston, DE 83679</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Thomas Hernandez</t>
+          <t>Alyssa Smith</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>42209072331572</t>
+          <t>62344578767514</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>301044092</t>
+          <t>764910529</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Alyssa</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>vwilson@example.net</t>
+          <t>ejones@example.net</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>+20632452927</t>
+          <t>+20772843447</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3455,165 +3455,165 @@
         <v>0</v>
       </c>
       <c r="K54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>671 Holly Drive Suite 009 North Troyfort, AS 35107</t>
+          <t>67923 Phillips Drive West Kathryn, GU 30068</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Christopher Ortiz</t>
+          <t>James Patrick</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>68664136911941</t>
+          <t>23100170953883</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>494105687</t>
+          <t>455069798</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>James</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ortiz</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>armstrongbrooke@example.net</t>
+          <t>jennifer30@example.org</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>+20486589757</t>
+          <t>+20410104633</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
       </c>
       <c r="K55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>37064 Duran Trace Apt. 378 New Allenmouth, NY 18416</t>
+          <t>4685 Chavez Dam North Theresaton, SC 33095</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Kimberly Hall</t>
+          <t>Jeremy Gomez</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>37185104616431</t>
+          <t>99477546953195</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>209284782</t>
+          <t>627419095</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kimberly</t>
+          <t>Jeremy</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>newtongary@example.org</t>
+          <t>jamie84@example.org</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>+20204709274</t>
+          <t>+20497091944</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>5059 Daniel Ville Apt. 302 North Julieton, CT 37465</t>
+          <t>83302 Osborn Junctions Lewisstad, CO 05636</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jesse Bowen</t>
+          <t>Darin Flores</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>22104358920397</t>
+          <t>12087899148144</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>955965466</t>
+          <t>998417952</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jesse</t>
+          <t>Darin</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bowen</t>
+          <t>Flores</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>yvettewhite@example.org</t>
+          <t>hansonglenn@example.org</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>+20287927021</t>
+          <t>+20443402722</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -3627,44 +3627,44 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>91132 Melody Coves Suite 310 South Larry, CA 24184</t>
+          <t>9894 Taylor Plain Sarahmouth, CT 18609</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Alexandra Robertson</t>
+          <t>Thomas Hanson</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>97086899293261</t>
+          <t>25617254554730</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>641042297</t>
+          <t>802799939</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Alexandra</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Robertson</t>
+          <t>Hanson</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>aaron91@example.net</t>
+          <t>latoyawilson@example.net</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>+20693469462</t>
+          <t>+20251432123</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="I58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="b">
         <v>1</v>
@@ -3683,100 +3683,100 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>73553 Tyler Route Lanestad, MI 71719</t>
+          <t>5926 Crystal Mountain Apt. 233 East Paul, OR 18684</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Joshua King</t>
+          <t>Pamela Newman</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>12111977357216</t>
+          <t>98176523621315</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>290109394</t>
+          <t>715767330</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Newman</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>amy09@example.com</t>
+          <t>shawbrian@example.com</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>+20951762107</t>
+          <t>+20282821753</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2228 Johnson Street Apt. 202 Harrisberg, MI 90631</t>
+          <t>590 Forbes Rue Lake Seanmouth, AL 00871</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Robert Andrade</t>
+          <t>Ashley Anderson</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>62727923388083</t>
+          <t>56414894077491</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>662160697</t>
+          <t>632569837</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Andrade</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>teresa49@example.net</t>
+          <t>kthompson@example.com</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>+20616532308</t>
+          <t>+20786748696</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3785,59 +3785,59 @@
         </is>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>54850 Garcia Shoal Apt. 544 North Daniellefurt, MP 50306</t>
+          <t>937 Nicholas Track Suite 627 East Wanda, NY 79207</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Angela Dominguez</t>
+          <t>Jeffrey Reid</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>50172436434914</t>
+          <t>35284831876160</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>638061778</t>
+          <t>738081819</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Jeffrey</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Dominguez</t>
+          <t>Reid</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>hudsonmelissa@example.com</t>
+          <t>garnerlisa@example.net</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>+20655757451</t>
+          <t>+20894231466</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I61" t="b">
@@ -3847,113 +3847,113 @@
         <v>1</v>
       </c>
       <c r="K61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>98221 Smith Knolls Bellport, SC 14097</t>
+          <t>155 Le Circles Apt. 796 Lake Cynthia, MH 41727</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>James Cook</t>
+          <t>Craig Bush</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>74706318674767</t>
+          <t>68719026683256</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>839100807</t>
+          <t>310328326</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cook</t>
+          <t>Bush</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>tdavis@example.org</t>
+          <t>jamesgarcia@example.org</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>+20509150053</t>
+          <t>+20923704822</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>5405 Krystal Mountain North Shannon, VI 74117</t>
+          <t>1359 Barbara Ways West Kelsey, WI 47430</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Patrick Taylor</t>
+          <t>Thomas Hayes</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>61333114515607</t>
+          <t>73472777483204</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>276161967</t>
+          <t>715846367</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Hayes</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>kevin50@example.net</t>
+          <t>rodriguezerin@example.net</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>+20379182405</t>
+          <t>+20445459918</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="b">
         <v>0</v>
@@ -3963,53 +3963,53 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>772 Beard Green Apt. 417 Patelhaven, WA 79937</t>
+          <t>9712 Rachel Camp Kevinberg, PW 08276</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Kyle Cooley</t>
+          <t>Juan Adams</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>31504037613920</t>
+          <t>88109460973001</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>430006825</t>
+          <t>241907021</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Kyle</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Cooley</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ecruz@example.net</t>
+          <t>curtisbradley@example.com</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>+20491380359</t>
+          <t>+20961679181</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="b">
         <v>1</v>
@@ -4019,44 +4019,44 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0800 Smith Green Theresaton, NC 88560</t>
+          <t>05631 Morales Ports Apt. 112 West Steven, ME 88483</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Joseph Spence</t>
+          <t>Edward Page</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>59135613947515</t>
+          <t>61702947329985</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>194508925</t>
+          <t>689047768</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Edward</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Spence</t>
+          <t>Page</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>samantha58@example.org</t>
+          <t>meagan36@example.org</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>+20316874086</t>
+          <t>+20279559543</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4075,44 +4075,44 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>878 King Highway Trevormouth, PA 20345</t>
+          <t>6184 Pierce View Apt. 526 Patrickberg, CT 34809</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Brandon Mccann</t>
+          <t>Sierra Richardson</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>98430398930523</t>
+          <t>63609673006643</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>431588604</t>
+          <t>232126010</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Sierra</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Mccann</t>
+          <t>Richardson</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>mmann@example.com</t>
+          <t>mindy73@example.com</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>+20761433119</t>
+          <t>+20993894376</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4131,385 +4131,385 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>99844 Sanchez Squares Suite 631 New Jonathan, AS 52265</t>
+          <t>978 Jodi Fall Apt. 696 Barajastown, NJ 17238</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Brandon Cummings</t>
+          <t>Gabriela Holden</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>70381158520641</t>
+          <t>87862026589829</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>432694533</t>
+          <t>874465087</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Gabriela</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cummings</t>
+          <t>Holden</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>mfrazier@example.com</t>
+          <t>ojames@example.com</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>+20551223388</t>
+          <t>+20697784498</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I67" t="b">
         <v>0</v>
       </c>
       <c r="J67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="b">
         <v>1</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>5593 Schroeder Station Apt. 211 Martinland, CO 80574</t>
+          <t>1437 Caldwell Path South Nancyborough, CO 80712</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Alexis Lopez</t>
+          <t>Douglas Harper</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>89842537834391</t>
+          <t>24682966214214</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>292076366</t>
+          <t>503657150</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Alexis</t>
+          <t>Douglas</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Harper</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ramirezelizabeth@example.com</t>
+          <t>amaddox@example.com</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>+20241395151</t>
+          <t>+20884006783</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="b">
         <v>1</v>
       </c>
       <c r="K68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>49798 Moore Wells Suite 328 Hortonport, MD 02798</t>
+          <t>9400 Lamb Neck Burchside, MN 17821</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Joseph Smith</t>
+          <t>Kathy Clark</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>20552853825304</t>
+          <t>24280086925305</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>283664681</t>
+          <t>426437218</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Kathy</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>johnsonnatalie@example.org</t>
+          <t>jvega@example.org</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>+20793199541</t>
+          <t>+20882665026</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I69" t="b">
         <v>0</v>
       </c>
       <c r="J69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="b">
         <v>1</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>09719 Cunningham Spur New Christopher, DC 98705</t>
+          <t>137 Mark Vista Shirleyport, AZ 86971</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Christopher Mercado</t>
+          <t>Colin Howard</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>82867107052355</t>
+          <t>56321927251137</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>708355717</t>
+          <t>151719087</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Colin</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Howard</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>mguzman@example.com</t>
+          <t>perezmonica@example.com</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>+20329423474</t>
+          <t>+20655561390</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>89710 Brown Flat Suite 947 Carterland, PA 22283</t>
+          <t>PSC 1237, Box 0796 APO AA 48574</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ashley Christian</t>
+          <t>Elizabeth Johnson</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>34349828578902</t>
+          <t>97971037207855</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>639532358</t>
+          <t>330248780</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>frankdonna@example.com</t>
+          <t>collinsjames@example.com</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>+20858091616</t>
+          <t>+20427818555</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>09795 Kristina Estate Suite 018 Richardton, CO 51874</t>
+          <t>PSC 8815, Box 0770 APO AP 19989</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Joseph Thomas</t>
+          <t>Jacob Shah</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>53070909033325</t>
+          <t>94591441015575</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>756277818</t>
+          <t>683256557</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Shah</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>sjohnson@example.org</t>
+          <t>zhumphrey@example.com</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>+20736293813</t>
+          <t>+20732073019</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>054 Gregory Parks Suite 891 Lake Tiffany, IL 39283</t>
+          <t>17140 Jackson Isle Carolhaven, NC 24359</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Tonya Miller</t>
+          <t>Lisa Gardner</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>60022237813584</t>
+          <t>91496782377091</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>975390137</t>
+          <t>120259145</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tonya</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Gardner</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>fjohnson@example.net</t>
+          <t>heather43@example.com</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>+20370533174</t>
+          <t>+20793369465</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I73" t="b">
@@ -4523,44 +4523,44 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>03831 Richard Forest New Stevenmouth, RI 61758</t>
+          <t>16758 Ryan Plaza South Kaitlin, TN 91392</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ann Nash</t>
+          <t>Julie Walker</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>56142089220106</t>
+          <t>58011523872918</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>654077188</t>
+          <t>261576117</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Ann</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Nash</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>nmyers@example.com</t>
+          <t>holmeslinda@example.net</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>+20526257620</t>
+          <t>+20433519031</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4572,172 +4572,172 @@
         <v>0</v>
       </c>
       <c r="J74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="b">
         <v>1</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>5246 James Falls Suite 559 Jonesberg, ID 29029</t>
+          <t>1161 Zachary Corners East David, MI 83714</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Christopher Hardy</t>
+          <t>Kevin Olson</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>77197900219591</t>
+          <t>57549416078464</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>507271631</t>
+          <t>169971819</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Hardy</t>
+          <t>Olson</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>laura21@example.org</t>
+          <t>patricia73@example.org</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>+20621856521</t>
+          <t>+20998310477</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>851 Hill Village Wilsonfort, CO 15840</t>
+          <t>15973 Gomez Knoll Apt. 615 Smithport, OK 85217</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Thomas Bullock</t>
+          <t>Michelle Newman</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>10339696454689</t>
+          <t>83996614240047</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>559437728</t>
+          <t>980714953</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Bullock</t>
+          <t>Newman</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>fsteele@example.net</t>
+          <t>jeffersonnicholas@example.org</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>+20365597765</t>
+          <t>+20704207688</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>131 Wilson Well Apt. 082 Waterstown, WY 96820</t>
+          <t>90130 Alvarez Trace Port Victor, PW 78983</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Troy Campbell</t>
+          <t>Tanya Christian</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>83796748680753</t>
+          <t>45483224752055</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>686122884</t>
+          <t>549984130</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>Tanya</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Campbell</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>brandonholland@example.com</t>
+          <t>jorge99@example.com</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>+20155356404</t>
+          <t>+20847543060</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
@@ -4747,49 +4747,49 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>709 Jenkins Spring West Aliciafort, MT 43344</t>
+          <t>Unit 5740 Box 9329 DPO AA 69988</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Latoya Hill</t>
+          <t>Nicholas Bond</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>14176798095441</t>
+          <t>68939315203889</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>920506901</t>
+          <t>184838408</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Latoya</t>
+          <t>Nicholas</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Hill</t>
+          <t>Bond</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>kristenrodriguez@example.com</t>
+          <t>nicholas28@example.org</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>+20140872837</t>
+          <t>+20793409698</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I78" t="b">
@@ -4803,109 +4803,109 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>022 Ashley Highway Apt. 415 North Lauraborough, IN 83008</t>
+          <t>6740 Monique Fort Suite 083 Ramirezmouth, NY 04241</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Nathan Murphy</t>
+          <t>Sarah Alvarado</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>79538375000644</t>
+          <t>79207023720631</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>210645862</t>
+          <t>311413578</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Nathan</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Murphy</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>uhall@example.org</t>
+          <t>calebcantrell@example.org</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>+20868252521</t>
+          <t>+20897664277</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
       </c>
       <c r="K79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>322 White Knoll Suite 958 Lake Zoe, NY 91424</t>
+          <t>48314 Shawn Mountains Apt. 763 East Olivia, CO 66029</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Christopher Burke</t>
+          <t>Erin Shaffer</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>57524310596074</t>
+          <t>34439162309810</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>388437803</t>
+          <t>435358277</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Erin</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Burke</t>
+          <t>Shaffer</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>howardautumn@example.net</t>
+          <t>ralphtucker@example.com</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>+20754820768</t>
+          <t>+20782920669</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
@@ -4915,221 +4915,221 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>50329 Ortiz Burg Suite 856 Jennaville, MD 34467</t>
+          <t>PSC 2740, Box 5132 APO AE 85990</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Jennifer Simpson</t>
+          <t>James Franklin</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>37684516860241</t>
+          <t>42788880939996</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>869135077</t>
+          <t>144610383</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>James</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Simpson</t>
+          <t>Franklin</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ewingashlee@example.net</t>
+          <t>ramoslauren@example.com</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>+20647341106</t>
+          <t>+20249267055</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>481 Cruz Loaf Suite 300 Jonesview, AR 20726</t>
+          <t>4988 Smith Shore Larryberg, ME 14311</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Joe Nguyen</t>
+          <t>Alice Fischer</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>19604656809381</t>
+          <t>25236760111750</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>387519677</t>
+          <t>446443401</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Joe</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Nguyen</t>
+          <t>Fischer</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>kimberly43@example.org</t>
+          <t>lreed@example.net</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>+20470577827</t>
+          <t>+20775788820</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>1</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>6792 Mark Corners Suite 450 Glassfurt, MS 55708</t>
+          <t>158 Steven Underpass Port Christopherbury, MN 14069</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>James Bates</t>
+          <t>Linda Wolf</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>84283131828660</t>
+          <t>38952937202151</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>874386491</t>
+          <t>983057504</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bates</t>
+          <t>Wolf</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>nicole73@example.com</t>
+          <t>janicewagner@example.com</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>+20749251206</t>
+          <t>+20479028208</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I83" t="b">
         <v>0</v>
       </c>
       <c r="J83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>398 Rosario Dam Apt. 625 New Brittany, TX 79085</t>
+          <t>610 Robert Street Smithstad, AS 84148</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Michael Fields</t>
+          <t>Gregory Lowery</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>19441076915384</t>
+          <t>64979758299728</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>816635688</t>
+          <t>309315782</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Gregory</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Fields</t>
+          <t>Lowery</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>patricia15@example.net</t>
+          <t>ndixon@example.org</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>+20501350557</t>
+          <t>+20328260848</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
@@ -5139,109 +5139,109 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>3690 Hudson Well West Mitchellport, CT 76755</t>
+          <t>Unit 3380 Box 3787 DPO AA 39366</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Shannon Oneill</t>
+          <t>David Hayes</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>15866399048257</t>
+          <t>43721717655722</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>710371825</t>
+          <t>143782641</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>David</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oneill</t>
+          <t>Hayes</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>keith36@example.net</t>
+          <t>torresaaron@example.com</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>+20416807183</t>
+          <t>+20694770953</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I85" t="b">
         <v>1</v>
       </c>
       <c r="J85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>74538 Melinda Valley Apt. 457 Lake Jeremy, PA 50422</t>
+          <t>936 Carlson Court Santiagoberg, IN 95759</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Michael Martin</t>
+          <t>Rhonda Henderson</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>26852433104582</t>
+          <t>24156504832707</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>265214497</t>
+          <t>679608306</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Rhonda</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Henderson</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>martha46@example.org</t>
+          <t>tonyayang@example.com</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>+20594397855</t>
+          <t>+20216997592</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
@@ -5251,165 +5251,165 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>25961 Meyers Keys Johnville, SD 20384</t>
+          <t>228 Christopher Road Suite 077 Brandonview, KY 95270</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Eric Peterson</t>
+          <t>Craig Faulkner</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>65093664238077</t>
+          <t>16159289712593</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>520300129</t>
+          <t>477890487</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Eric</t>
+          <t>Craig</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Faulkner</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>kjuarez@example.com</t>
+          <t>james33@example.com</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>+20545901892</t>
+          <t>+20339088943</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I87" t="b">
         <v>0</v>
       </c>
       <c r="J87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>8900 Romero Roads New Stephanie, AK 82020</t>
+          <t>5096 Pamela Lodge Port Brianborough, MH 97301</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Lisa Giles</t>
+          <t>Todd White</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>96820856659111</t>
+          <t>24567747276253</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>360310400</t>
+          <t>174084521</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Todd</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Giles</t>
+          <t>White</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>stephenwilliams@example.com</t>
+          <t>kristi46@example.org</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>+20641212036</t>
+          <t>+20905852584</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>417 Salazar Flats Gonzalezside, VT 05776</t>
+          <t>648 Jessica Junctions Christophermouth, MI 14939</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Joel Warner</t>
+          <t>Amy Bell</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>21238079323416</t>
+          <t>54912943573801</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>822128658</t>
+          <t>138340909</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Joel</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Warner</t>
+          <t>Bell</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>leeolson@example.org</t>
+          <t>baldwinrobin@example.com</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>+20486880022</t>
+          <t>+20790171115</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="b">
         <v>0</v>
@@ -5419,161 +5419,161 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>89721 Kyle Turnpike Suite 020 Lake Anna, NH 06427</t>
+          <t>16804 Hernandez Corners Apt. 026 Cookstad, GU 61710</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Jacob Peterson</t>
+          <t>Jonathan Cook</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>60824940886384</t>
+          <t>35561986568910</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>120174257</t>
+          <t>766198696</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Cook</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>uthompson@example.net</t>
+          <t>carterchelsea@example.net</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>+20635532737</t>
+          <t>+20663465501</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>611 Ward Vista Suite 274 Lake Madison, TN 90183</t>
+          <t>09880 Brittany Centers Apt. 689 West Morgan, IL 28356</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sherry Blair</t>
+          <t>Allen Smith</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>91671221472000</t>
+          <t>82119980969123</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>986940179</t>
+          <t>905466779</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Sherry</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Blair</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>umitchell@example.org</t>
+          <t>laura23@example.net</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>+20396523942</t>
+          <t>+20329323331</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>3772 Gonzalez Path Apt. 753 Port Virginiaside, FL 90246</t>
+          <t>23457 Carmen Isle West Jennifertown, FM 05555</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Stephen Hall</t>
+          <t>Jessica Johnson</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>86349455189820</t>
+          <t>47682537138432</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>976927779</t>
+          <t>812498648</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Stephen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>james10@example.com</t>
+          <t>katherinelarsen@example.net</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>+20348684924</t>
+          <t>+20184872230</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I92" t="b">
@@ -5583,113 +5583,113 @@
         <v>0</v>
       </c>
       <c r="K92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>95171 Michael Street Apt. 143 West Kara, MO 08483</t>
+          <t>942 Anderson Port North Johnburgh, FL 76628</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Jill Haney</t>
+          <t>Michelle Hodges</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>87475777261666</t>
+          <t>99584534864841</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>361139375</t>
+          <t>286001533</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Jill</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Haney</t>
+          <t>Hodges</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>martinraymond@example.com</t>
+          <t>maryknight@example.net</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>+20950671163</t>
+          <t>+20688344928</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I93" t="b">
         <v>1</v>
       </c>
       <c r="J93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2238 Megan View Mosleychester, OR 10915</t>
+          <t>52455 Young Glens Port Katherineport, UT 63424</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Stacey Conner</t>
+          <t>Mark Phelps</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>96670996623145</t>
+          <t>73851206060846</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>462778813</t>
+          <t>884594938</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Stacey</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Conner</t>
+          <t>Phelps</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>brettcunningham@example.net</t>
+          <t>sanderssean@example.net</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>+20279004373</t>
+          <t>+20967528006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="b">
         <v>1</v>
@@ -5699,100 +5699,100 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>578 Henry Square Apt. 896 Lake Jamesborough, MA 82691</t>
+          <t>373 Jonathan Track West Garrett, ME 55702</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Michael Blake</t>
+          <t>Jesse Hernandez</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>58019558803767</t>
+          <t>89994813661461</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>613405139</t>
+          <t>592620063</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Jesse</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Blake</t>
+          <t>Hernandez</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>casejohn@example.com</t>
+          <t>monica06@example.org</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>+20539391608</t>
+          <t>+20656610551</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>not_student</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>54654 Knight Ridge Lake John, CT 10186</t>
+          <t>2621 Rebecca Squares Garciatown, VT 72440</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Joel Brown</t>
+          <t>Sherry Russell</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>91190718492483</t>
+          <t>58143832714645</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>912478885</t>
+          <t>828188902</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Joel</t>
+          <t>Sherry</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>foxbrett@example.net</t>
+          <t>kathyjohnson@example.org</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>+20586835076</t>
+          <t>+20114028592</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5811,105 +5811,105 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>6197 Debra Cliff Grantborough, GU 74080</t>
+          <t>2692 Sandra Junctions Suite 799 Jacksonbury, LA 23783</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Jared Reed</t>
+          <t>Richard Flores</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>91561393060717</t>
+          <t>81844817949073</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>843015013</t>
+          <t>621609223</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Jared</t>
+          <t>Richard</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Flores</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>berrymark@example.com</t>
+          <t>richardthomas@example.net</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>+20598740610</t>
+          <t>+20800079295</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>not_student</t>
         </is>
       </c>
       <c r="I97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>3090 Craig Views Lindaberg, AL 86557</t>
+          <t>4842 Tate Mount Apt. 939 Elizabethburgh, AS 36319</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Jerry Anderson</t>
+          <t>Tina Carr</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>93601497565001</t>
+          <t>12584118612188</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>247286518</t>
+          <t>647312735</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Tina</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Carr</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>gentrygina@example.org</t>
+          <t>nramos@example.net</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>+20596961449</t>
+          <t>+20899311777</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I98" t="b">
@@ -5919,104 +5919,104 @@
         <v>1</v>
       </c>
       <c r="K98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>1842 Linda Common Suite 140 Justinland, KY 97920</t>
+          <t>7794 Nicholas Squares Wilsonland, PA 92468</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Nicole Wilson</t>
+          <t>Tanya Carroll</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>86560502157525</t>
+          <t>32970370646466</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>793072162</t>
+          <t>801203893</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Tanya</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Carroll</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>heather61@example.net</t>
+          <t>mdean@example.com</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>+20215718612</t>
+          <t>+20471467137</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="b">
         <v>0</v>
       </c>
       <c r="K99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>0287 Ingram Street Michaelside, GU 15102</t>
+          <t>8906 Reyes Drives Apt. 332 Charlesland, UT 62178</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Heather Valdez</t>
+          <t>Christopher Ruiz</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>83671846027702</t>
+          <t>45818094217977</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>295502039</t>
+          <t>537137285</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Valdez</t>
+          <t>Ruiz</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>katkins@example.com</t>
+          <t>christophersmith@example.com</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>+20100678875</t>
+          <t>+20713085978</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -6028,70 +6028,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="b">
         <v>1</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>29289 Joshua Trafficway Lake Taraport, CO 70797</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Rachael Henry</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>36724713741053</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>112838263</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Rachael</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>nswanson@example.com</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>+20200440676</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="b">
-        <v>0</v>
-      </c>
-      <c r="K101" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>86640 Richardson Corners Apt. 805 Lake Connie, IL 40146</t>
+          <t>8878 Frank Passage Apt. 891 Sheilaland, CA 22791</t>
         </is>
       </c>
     </row>
